--- a/final_data/ohne_fucking_bug/xlsx/results_289_sig_right_ob.xlsx
+++ b/final_data/ohne_fucking_bug/xlsx/results_289_sig_right_ob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelruland/Documents/studium_paderborn/Bachelorarbeit/BA_thesis/final_data/ohne_fucking_bug/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08214732-21F3-9F48-BDCF-8B439DFFAF02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85274989-CCB6-1B47-9C7F-5A00456CFB2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_289_sig_right_ob" sheetId="1" r:id="rId1"/>
@@ -871,7 +871,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J202" totalsRowShown="0">
   <autoFilter ref="A1:J202" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:J202">
-    <sortCondition descending="1" ref="E1:E202"/>
+    <sortCondition descending="1" ref="F1:F202"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="antecedent"/>
@@ -1191,7 +1191,8 @@
   <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1233,36 +1234,36 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" s="1">
-        <v>0.63200000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="D2">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
-        <v>1355.836</v>
+        <v>491.24700000000001</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0.7</v>
+        <v>0.02</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>72</v>
@@ -1270,335 +1271,335 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
-        <v>0.622</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D3">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2">
-        <v>1322.9659999999999</v>
+        <v>296.39</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="1">
-        <v>0.42399999999999999</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D4">
-        <v>821</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
-        <v>908.774</v>
+        <v>192.572</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
-        <v>0.42</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D5">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2">
-        <v>894.11</v>
+        <v>134.04300000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>0.41599999999999998</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D6">
-        <v>806</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2">
-        <v>886.36800000000005</v>
+        <v>72.126000000000005</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
-        <v>0.39700000000000002</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D7">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2">
-        <v>852.4</v>
+        <v>240.62299999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G7" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="1">
-        <v>0.54800000000000004</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D8">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
-        <v>824.63</v>
+        <v>5.1710000000000003</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>0.98701298701298701</v>
       </c>
       <c r="G8" s="1">
-        <v>0.35</v>
+        <v>3.8961038961038898E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>0.97402597402597402</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="J8">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
-        <v>0.53300000000000003</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D9">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2">
-        <v>802.47400000000005</v>
+        <v>44.497999999999998</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G9" s="1">
-        <v>0.43</v>
+        <v>0.03</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>0.31</v>
+        <v>0.104</v>
       </c>
       <c r="D10">
-        <v>695</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
-        <v>665.71500000000003</v>
+        <v>65.025000000000006</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J10">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
-        <v>0.30299999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="D11">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2">
-        <v>649.70500000000004</v>
+        <v>31.396999999999998</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>0.80808080808080796</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>4.0404040404040401E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>0.96969696969696895</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>0.30499999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="D12">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
-        <v>649.26700000000005</v>
+        <v>55.069000000000003</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1606,292 +1607,292 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>0.3</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D13">
-        <v>637</v>
+        <v>275</v>
       </c>
       <c r="E13" s="2">
-        <v>638.22799999999995</v>
+        <v>570.51300000000003</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>0.40400000000000003</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="D14">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="E14" s="2">
-        <v>607.79399999999998</v>
+        <v>549.82500000000005</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="G14" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>0.41699999999999998</v>
+        <v>0.112</v>
       </c>
       <c r="D15">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2">
-        <v>604.21600000000001</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>0.41399999999999998</v>
+        <v>0.122</v>
       </c>
       <c r="D16">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2">
-        <v>600.52599999999995</v>
+        <v>16.279</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>0.48888888888888798</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>4.4444444444444398E-2</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26800000000000002</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D17">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="E17" s="2">
-        <v>570.51300000000003</v>
+        <v>372.40600000000001</v>
       </c>
       <c r="F17" s="1">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0.71</v>
+        <v>0.01</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1">
-        <v>0.56599999999999995</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>559.08399999999995</v>
+        <v>8.5779999999999994</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>0.30769230769230699</v>
       </c>
       <c r="G18" s="1">
-        <v>0.23</v>
+        <v>0.19230769230769201</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="J18">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="D19">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2">
-        <v>555.48599999999999</v>
+        <v>140.13800000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>0.30379746835443</v>
       </c>
       <c r="G19" s="1">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>0.30379746835443</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J19">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1">
-        <v>0.25600000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D20">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>549.82500000000005</v>
+        <v>8.09</v>
       </c>
       <c r="F20" s="1">
-        <v>0.67</v>
+        <v>0.28301886792452802</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1.8867924528301799E-2</v>
       </c>
       <c r="H20" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="1">
-        <v>0.35</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D21">
-        <v>499</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>526.70899999999995</v>
+        <v>8.09</v>
       </c>
       <c r="F21" s="1">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G21" s="1">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="H21" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J21">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1900,31 +1901,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
-        <v>0.316</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D22">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>491.24700000000001</v>
+        <v>13.568</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="G22" s="1">
-        <v>0.02</v>
+        <v>0.51041666666666596</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J22">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1933,61 +1934,61 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
       <c r="C23" s="1">
-        <v>0.30599999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2">
-        <v>485.096</v>
+        <v>14.164999999999999</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>0.25287356321839</v>
       </c>
       <c r="G23" s="1">
-        <v>0.21</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>2.2988505747126398E-2</v>
       </c>
       <c r="I23">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J23">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
-        <v>0.30299999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="D24">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2">
-        <v>480.28899999999999</v>
+        <v>157.298</v>
       </c>
       <c r="F24" s="1">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="G24" s="1">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I24">
         <v>100</v>
@@ -1998,98 +1999,98 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>13.538</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.225806451612903</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.66129032258064502</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.2258064516128997E-2</v>
+      </c>
+      <c r="I25">
+        <v>62</v>
+      </c>
+      <c r="J25">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="D25">
-        <v>150</v>
-      </c>
-      <c r="E25" s="2">
-        <v>441.91</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I25">
-        <v>100</v>
-      </c>
-      <c r="J25">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C26" s="1">
-        <v>0.38600000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="D26">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2">
-        <v>432.40199999999999</v>
+        <v>15.779</v>
       </c>
       <c r="F26" s="1">
-        <v>0.01</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G26" s="1">
-        <v>0.84</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="1">
-        <v>0.01</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J26">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <v>0.26300000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D27">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2">
-        <v>409.279</v>
+        <v>29.702999999999999</v>
       </c>
       <c r="F27" s="1">
-        <v>0.13</v>
+        <v>0.21126760563380201</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J27">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2098,88 +2099,88 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
       <c r="C28" s="1">
-        <v>0.191</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D28">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2">
-        <v>407.17399999999998</v>
+        <v>235.71100000000001</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="1">
-        <v>0.185</v>
+        <v>0.35</v>
       </c>
       <c r="D29">
-        <v>271</v>
+        <v>499</v>
       </c>
       <c r="E29" s="2">
-        <v>397.79399999999998</v>
+        <v>526.70899999999995</v>
       </c>
       <c r="F29" s="1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H29" s="1">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I29">
         <v>100</v>
       </c>
       <c r="J29">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1">
-        <v>0.182</v>
+        <v>0.191</v>
       </c>
       <c r="D30">
-        <v>447</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2">
-        <v>390.96</v>
+        <v>7.9660000000000002</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>0.17647058823529399</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2188,64 +2189,64 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J30">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
       <c r="C31" s="1">
-        <v>0.182</v>
+        <v>0.26</v>
       </c>
       <c r="D31">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2">
-        <v>387.18599999999998</v>
+        <v>34.628999999999998</v>
       </c>
       <c r="F31" s="1">
-        <v>0.02</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>0.42708333333333298</v>
       </c>
       <c r="H31" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J31">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>0.255</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="D32">
-        <v>414</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2">
-        <v>384.80099999999999</v>
+        <v>7.9660000000000002</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>0.15384615384615299</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -2254,40 +2255,40 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J32">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
-        <v>0.25700000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="D33">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2">
-        <v>372.40600000000001</v>
+        <v>8.5370000000000008</v>
       </c>
       <c r="F33" s="1">
-        <v>0.36</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="H33" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="J33">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2296,22 +2297,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>0.24399999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="D34">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="E34" s="2">
-        <v>367.58</v>
+        <v>162.09899999999999</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>0.13157894736842099</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -2320,295 +2321,295 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1">
-        <v>0.36</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D35">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2">
-        <v>355.43099999999998</v>
+        <v>409.279</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
       <c r="J35">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="1">
-        <v>0.373</v>
+        <v>0.186</v>
       </c>
       <c r="D36">
-        <v>327</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2">
-        <v>343.315</v>
+        <v>12.614000000000001</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J36">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20.32</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.112903225806451</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4.8387096774193498E-2</v>
+      </c>
+      <c r="I37">
         <v>62</v>
       </c>
-      <c r="C37" s="1">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="D37">
-        <v>126</v>
-      </c>
-      <c r="E37" s="2">
-        <v>337.84500000000003</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>100</v>
-      </c>
       <c r="J37">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1">
-        <v>0.153</v>
+        <v>0.189</v>
       </c>
       <c r="D38">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2">
-        <v>325.64400000000001</v>
+        <v>16.263000000000002</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>0.105263157894736</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="J38">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D39">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E39" s="2">
-        <v>313.41500000000002</v>
+        <v>26.731999999999999</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>9.7222222222222196E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>1.38888888888888E-2</v>
       </c>
       <c r="I39">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J39">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D40">
-        <v>391</v>
+        <v>13</v>
       </c>
       <c r="E40" s="2">
-        <v>312.95299999999997</v>
+        <v>12.614000000000001</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>9.5238095238095205E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J40">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1">
-        <v>0.14299999999999999</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="D41">
-        <v>364</v>
+        <v>22</v>
       </c>
       <c r="E41" s="2">
-        <v>305.79899999999998</v>
+        <v>41.786999999999999</v>
       </c>
       <c r="F41" s="1">
-        <v>0.02</v>
+        <v>9.4736842105263105E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.01</v>
+        <v>1.0526315789473601E-2</v>
       </c>
       <c r="H41" s="1">
-        <v>0.02</v>
+        <v>8.4210526315789402E-2</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J41">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
       <c r="C42" s="1">
-        <v>0.30299999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="D42">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2">
-        <v>303.10199999999998</v>
+        <v>12.672000000000001</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J42">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1">
-        <v>0.19800000000000001</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="D43">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2">
-        <v>298.392</v>
+        <v>275.31799999999998</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2621,102 +2622,102 @@
       </c>
       <c r="J43">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
       <c r="C44" s="1">
-        <v>0.19700000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="D44">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2">
-        <v>297.39999999999998</v>
+        <v>14.632</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>8.8888888888888795E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>0.24444444444444399</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1">
-        <v>0.19700000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="D45">
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="E45" s="2">
-        <v>296.45800000000003</v>
+        <v>15.257</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>8.6956521739130405E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="J45">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
-        <v>0.19700000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D46">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="E46" s="2">
-        <v>296.39</v>
+        <v>13.952999999999999</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J46">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2725,55 +2726,55 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
       <c r="C47" s="1">
-        <v>0.26100000000000001</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D47">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2">
-        <v>292.34500000000003</v>
+        <v>13.555</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J47">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1">
-        <v>0.20100000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="D48">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2">
-        <v>291.28800000000001</v>
+        <v>153.136</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2786,93 +2787,93 @@
       </c>
       <c r="J48">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
-        <v>0.312</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D49">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="E49" s="2">
-        <v>287.536</v>
+        <v>26.584</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>6.3829787234042507E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>0.73404255319148903</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>1.0638297872340399E-2</v>
       </c>
       <c r="I49">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J49">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1">
-        <v>0.28599999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2">
-        <v>277.22699999999998</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="F50" s="1">
-        <v>0.01</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>0.9</v>
+        <v>0.32352941176470501</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J50">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1">
-        <v>0.27900000000000003</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D51">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2">
-        <v>275.31799999999998</v>
+        <v>7.9660000000000002</v>
       </c>
       <c r="F51" s="1">
-        <v>0.09</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2881,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J51">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2890,130 +2891,130 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C52" s="1">
-        <v>0.29799999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="D52">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="E52" s="2">
-        <v>274.92500000000001</v>
+        <v>397.79399999999998</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D53">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2">
-        <v>271.98500000000001</v>
+        <v>28.388999999999999</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>4.9180327868852403E-2</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>0.14754098360655701</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="J53">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>0.435</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D54">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E54" s="2">
-        <v>270.72699999999998</v>
+        <v>15.564</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="G54" s="1">
-        <v>0.13</v>
+        <v>0.15277777777777701</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J54">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
         <v>9</v>
       </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
       <c r="C55" s="1">
-        <v>0.24099999999999999</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D55">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2">
-        <v>269.71100000000001</v>
+        <v>14.875999999999999</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>4.08163265306122E-2</v>
       </c>
       <c r="G55" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>2.04081632653061E-2</v>
       </c>
       <c r="I55">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3022,97 +3023,97 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1">
-        <v>0.36</v>
+        <v>0.222</v>
       </c>
       <c r="D56">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="E56" s="2">
-        <v>254.57400000000001</v>
+        <v>114.23699999999999</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I56">
         <v>100</v>
       </c>
       <c r="J56">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1">
-        <v>0.435</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D57">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E57" s="2">
-        <v>254.054</v>
+        <v>198.96299999999999</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G57" s="1">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
       <c r="J57">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C58" s="1">
-        <v>0.49</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="D58">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E58" s="2">
-        <v>249.10400000000001</v>
+        <v>25.128</v>
       </c>
       <c r="F58" s="1">
-        <v>0.01</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G58" s="1">
-        <v>0.76</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J58">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3121,64 +3122,64 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1">
-        <v>0.39</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D59">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2">
-        <v>243.12899999999999</v>
+        <v>26.786000000000001</v>
       </c>
       <c r="F59" s="1">
-        <v>0.02</v>
+        <v>3.65853658536585E-2</v>
       </c>
       <c r="G59" s="1">
-        <v>0.77</v>
+        <v>0.91463414634146301</v>
       </c>
       <c r="H59" s="1">
-        <v>0.18</v>
+        <v>2.4390243902439001E-2</v>
       </c>
       <c r="I59">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J59">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C60" s="1">
-        <v>0.27200000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D60">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2">
-        <v>240.62299999999999</v>
+        <v>7.5730000000000004</v>
       </c>
       <c r="F60" s="1">
-        <v>0.99</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>0.61764705882352899</v>
       </c>
       <c r="H60" s="1">
-        <v>0.99</v>
+        <v>8.8235294117646995E-2</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J60">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3187,196 +3188,196 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1">
-        <v>0.46400000000000002</v>
+        <v>0.218</v>
       </c>
       <c r="D61">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2">
-        <v>235.71100000000001</v>
+        <v>13.279</v>
       </c>
       <c r="F61" s="1">
-        <v>0.21</v>
+        <v>2.4390243902439001E-2</v>
       </c>
       <c r="G61" s="1">
-        <v>0.37</v>
+        <v>0.68292682926829196</v>
       </c>
       <c r="H61" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D62">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="D62">
-        <v>128</v>
-      </c>
       <c r="E62" s="2">
-        <v>227.066</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>2.2471910112359501E-2</v>
       </c>
       <c r="G62" s="1">
-        <v>0.19753086419752999</v>
+        <v>2.2471910112359501E-2</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J62">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C63" s="1">
         <v>0.15</v>
       </c>
       <c r="D63">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E63" s="2">
-        <v>226.34</v>
+        <v>77.143000000000001</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>2.2222222222222199E-2</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>0.688888888888888</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
         <v>38</v>
       </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
       <c r="C64" s="1">
-        <v>0.14099999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="D64">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="E64" s="2">
-        <v>223.423</v>
+        <v>243.12899999999999</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G64" s="1">
-        <v>0.57647058823529396</v>
+        <v>0.77</v>
       </c>
       <c r="H64" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I64">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J64">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
-        <v>54</v>
+      <c r="B65" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C65" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D65">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E65" s="2">
-        <v>222.107</v>
+        <v>441.91</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H65" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I65">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="J65">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1">
-        <v>0.152</v>
+        <v>0.182</v>
       </c>
       <c r="D66">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="E66" s="2">
-        <v>221.447</v>
+        <v>387.18599999999998</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I66">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="J66">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3385,28 +3386,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C67" s="1">
-        <v>0.192</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D67">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="E67" s="2">
-        <v>214.958</v>
+        <v>305.79899999999998</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H67" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I67">
         <v>100</v>
@@ -3418,22 +3419,22 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1">
-        <v>0.23100000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D68">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2">
-        <v>212.68899999999999</v>
+        <v>199.42500000000001</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -3451,25 +3452,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C69" s="1">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="D69">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="E69" s="2">
-        <v>209.87100000000001</v>
+        <v>193</v>
       </c>
       <c r="F69" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G69" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -3484,22 +3485,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C70" s="1">
-        <v>0.21</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D70">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2">
-        <v>207.25800000000001</v>
+        <v>128.97800000000001</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3508,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J70">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3517,64 +3518,64 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D71">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>201.58099999999999</v>
+        <v>38.439</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>1.1111111111111099E-2</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="1">
-        <v>0</v>
+        <v>1.1111111111111099E-2</v>
       </c>
       <c r="I71">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J71">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="1">
-        <v>0.20699999999999999</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D72">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E72" s="2">
-        <v>200.75800000000001</v>
+        <v>40.917999999999999</v>
       </c>
       <c r="F72" s="1">
-        <v>0.01</v>
+        <v>1.0638297872340399E-2</v>
       </c>
       <c r="G72" s="1">
-        <v>0.33</v>
+        <v>0.82978723404255295</v>
       </c>
       <c r="H72" s="1">
-        <v>0</v>
+        <v>1.0638297872340399E-2</v>
       </c>
       <c r="I72">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J72">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3583,94 +3584,94 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1">
-        <v>0.28199999999999997</v>
+        <v>0.155</v>
       </c>
       <c r="D73">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="E73" s="2">
-        <v>199.42500000000001</v>
+        <v>174.36600000000001</v>
       </c>
       <c r="F73" s="1">
-        <v>0.02</v>
+        <v>1.01010101010101E-2</v>
       </c>
       <c r="G73" s="1">
-        <v>0</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="H73" s="1">
-        <v>0</v>
+        <v>1.01010101010101E-2</v>
       </c>
       <c r="I73">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J73">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
-        <v>0.36799999999999999</v>
+        <v>0.221</v>
       </c>
       <c r="D74">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E74" s="2">
-        <v>198.96299999999999</v>
+        <v>72.662999999999997</v>
       </c>
       <c r="F74" s="1">
-        <v>0.04</v>
+        <v>1.01010101010101E-2</v>
       </c>
       <c r="G74" s="1">
-        <v>0</v>
+        <v>0.23232323232323199</v>
       </c>
       <c r="H74" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J74">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C75" s="1">
-        <v>0.32700000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D75">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2">
-        <v>197.477</v>
+        <v>480.28899999999999</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G75" s="1">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="H75" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I75">
         <v>100</v>
@@ -3681,32 +3682,32 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B76" t="s">
-        <v>60</v>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C76" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D76">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2">
-        <v>195.87899999999999</v>
+        <v>432.40199999999999</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G76" s="1">
-        <v>0.15853658536585299</v>
+        <v>0.84</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I76">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="J76">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3715,25 +3716,25 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C77" s="1">
-        <v>0.38</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D77">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="E77" s="2">
-        <v>193</v>
+        <v>277.22699999999998</v>
       </c>
       <c r="F77" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -3743,63 +3744,63 @@
       </c>
       <c r="J77">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="D78">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E78" s="2">
-        <v>192.572</v>
+        <v>249.10400000000001</v>
       </c>
       <c r="F78" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="H78" s="1">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>100</v>
       </c>
       <c r="J78">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C79" s="1">
-        <v>0.314</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="D79">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E79" s="2">
-        <v>189.83799999999999</v>
+        <v>200.75800000000001</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G79" s="1">
-        <v>0.96</v>
+        <v>0.33</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
@@ -3814,25 +3815,25 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C80" s="1">
-        <v>0.311</v>
+        <v>0.21</v>
       </c>
       <c r="D80">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2">
-        <v>181.76</v>
+        <v>209.87100000000001</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G80" s="1">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="H80" s="1">
         <v>0</v>
@@ -3842,30 +3843,30 @@
       </c>
       <c r="J80">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C81" s="1">
-        <v>0.29099999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="D81">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2">
-        <v>181.40600000000001</v>
+        <v>123.899</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G81" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H81" s="1">
         <v>0</v>
@@ -3875,30 +3876,30 @@
       </c>
       <c r="J81">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C82" s="1">
-        <v>0.35199999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D82">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E82" s="2">
-        <v>179.14099999999999</v>
+        <v>88.09</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G82" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
@@ -3908,129 +3909,129 @@
       </c>
       <c r="J82">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C83" s="1">
-        <v>0.155</v>
+        <v>0.122</v>
       </c>
       <c r="D83">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="E83" s="2">
-        <v>174.36600000000001</v>
+        <v>28.388999999999999</v>
       </c>
       <c r="F83" s="1">
-        <v>1.01010101010101E-2</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>0.54545454545454497</v>
+        <v>0.5</v>
       </c>
       <c r="H83" s="1">
-        <v>1.01010101010101E-2</v>
+        <v>0.125</v>
       </c>
       <c r="I83">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="J83">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C84" s="1">
-        <v>0.40699999999999997</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D84">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E84" s="2">
-        <v>168.87200000000001</v>
+        <v>3.6360000000000001</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.98936170212765895</v>
       </c>
       <c r="H84" s="1">
-        <v>0</v>
+        <v>0.95744680851063801</v>
       </c>
       <c r="I84">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J84">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I85">
+        <v>7</v>
+      </c>
+      <c r="J85">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="1">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="D85">
-        <v>15</v>
-      </c>
-      <c r="E85" s="2">
-        <v>165.67500000000001</v>
-      </c>
-      <c r="F85" s="1">
-        <v>0</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>100</v>
-      </c>
-      <c r="J85">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C86" s="1">
-        <v>0.50800000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D86">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="E86" s="2">
-        <v>165.55699999999999</v>
+        <v>1355.836</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="H86" s="1">
         <v>0</v>
@@ -4045,28 +4046,28 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C87" s="1">
-        <v>0.28199999999999997</v>
+        <v>0.622</v>
       </c>
       <c r="D87">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2">
-        <v>164.773</v>
+        <v>1322.9659999999999</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="H87" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -4078,25 +4079,25 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C88" s="1">
-        <v>0.26300000000000001</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D88">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E88" s="2">
-        <v>164.05099999999999</v>
+        <v>824.63</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
@@ -4111,31 +4112,31 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C89" s="1">
-        <v>0.111</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D89">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="E89" s="2">
-        <v>162.09899999999999</v>
+        <v>802.47400000000005</v>
       </c>
       <c r="F89" s="1">
-        <v>0.13157894736842099</v>
+        <v>0</v>
       </c>
       <c r="G89" s="1">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H89" s="1">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="J89">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4144,94 +4145,94 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C90" s="1">
-        <v>0.161</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D90">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E90" s="2">
-        <v>159.13200000000001</v>
+        <v>607.79399999999998</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="H90" s="1">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J90">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C91" s="1">
-        <v>0.157</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D91">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E91" s="2">
-        <v>157.51</v>
+        <v>559.08399999999995</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <v>4.1666666666666602E-2</v>
+        <v>0.23</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="J91">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C92" s="1">
-        <v>0.157</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2">
-        <v>157.298</v>
+        <v>555.48599999999999</v>
       </c>
       <c r="F92" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H92" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>100</v>
@@ -4243,58 +4244,58 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C93" s="1">
-        <v>0.13800000000000001</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D93">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E93" s="2">
-        <v>155.40199999999999</v>
+        <v>485.096</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J93">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C94" s="1">
-        <v>0.374</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D94">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2">
-        <v>155.13800000000001</v>
+        <v>337.84500000000003</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
@@ -4309,25 +4310,25 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C95" s="1">
-        <v>0.158</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D95">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2">
-        <v>153.136</v>
+        <v>292.34500000000003</v>
       </c>
       <c r="F95" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H95" s="1">
         <v>0</v>
@@ -4342,64 +4343,64 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1">
-        <v>0.16400000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="D96">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="E96" s="2">
-        <v>151.17699999999999</v>
+        <v>270.72699999999998</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H96" s="1">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="J96">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C97" s="1">
-        <v>0.247</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D97">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E97" s="2">
-        <v>149.16399999999999</v>
+        <v>269.71100000000001</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <v>0.52747252747252704</v>
+        <v>0.67</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J97">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4408,31 +4409,31 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C98" s="1">
-        <v>0.152</v>
+        <v>0.435</v>
       </c>
       <c r="D98">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E98" s="2">
-        <v>148.02099999999999</v>
+        <v>254.054</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <v>0.22222222222222199</v>
+        <v>0.53</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J98">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4441,157 +4442,157 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C99" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D99">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2">
-        <v>146.62799999999999</v>
+        <v>227.066</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <v>0</v>
+        <v>0.19753086419752999</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J99">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C100" s="1">
-        <v>0.125</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D100">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2">
-        <v>140.53200000000001</v>
+        <v>223.423</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>0</v>
+        <v>0.57647058823529396</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J100">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C101" s="1">
-        <v>0.125</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="D101">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E101" s="2">
-        <v>140.13800000000001</v>
+        <v>197.477</v>
       </c>
       <c r="F101" s="1">
-        <v>0.30379746835443</v>
+        <v>0</v>
       </c>
       <c r="G101" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H101" s="1">
-        <v>0.30379746835443</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="J101">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C102" s="1">
-        <v>0.193</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D102">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2">
-        <v>137.41800000000001</v>
+        <v>195.87899999999999</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <v>1.01010101010101E-2</v>
+        <v>0.15853658536585299</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J102">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C103" s="1">
-        <v>0.311</v>
+        <v>0.314</v>
       </c>
       <c r="D103">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E103" s="2">
-        <v>137.143</v>
+        <v>189.83799999999999</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
       </c>
       <c r="G103" s="1">
-        <v>0.24</v>
+        <v>0.96</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
@@ -4606,25 +4607,25 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C104" s="1">
-        <v>0.27</v>
+        <v>0.311</v>
       </c>
       <c r="D104">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="E104" s="2">
-        <v>137.07400000000001</v>
+        <v>181.76</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
       </c>
       <c r="G104" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="H104" s="1">
         <v>0</v>
@@ -4634,63 +4635,63 @@
       </c>
       <c r="J104">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>58</v>
+      </c>
+      <c r="B105" t="s">
         <v>19</v>
       </c>
-      <c r="B105" t="s">
-        <v>27</v>
-      </c>
       <c r="C105" s="1">
-        <v>0.14499999999999999</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D105">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E105" s="2">
-        <v>134.04300000000001</v>
+        <v>181.40600000000001</v>
       </c>
       <c r="F105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>100</v>
       </c>
       <c r="J105">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C106" s="1">
-        <v>0.22900000000000001</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D106">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="E106" s="2">
-        <v>133.87299999999999</v>
+        <v>179.14099999999999</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H106" s="1">
         <v>0</v>
@@ -4700,30 +4701,30 @@
       </c>
       <c r="J106">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C107" s="1">
-        <v>0.254</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D107">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="E107" s="2">
-        <v>129.376</v>
+        <v>168.87200000000001</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H107" s="1">
         <v>0</v>
@@ -4733,7 +4734,7 @@
       </c>
       <c r="J107">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -4741,22 +4742,22 @@
         <v>67</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C108" s="1">
-        <v>0.36699999999999999</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D108">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="E108" s="2">
-        <v>128.97800000000001</v>
+        <v>165.67500000000001</v>
       </c>
       <c r="F108" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G108" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="H108" s="1">
         <v>0</v>
@@ -4766,7 +4767,7 @@
       </c>
       <c r="J108">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -4774,22 +4775,22 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C109" s="1">
-        <v>0.38</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D109">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="E109" s="2">
-        <v>123.899</v>
+        <v>165.55699999999999</v>
       </c>
       <c r="F109" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G109" s="1">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="H109" s="1">
         <v>0</v>
@@ -4799,33 +4800,33 @@
       </c>
       <c r="J109">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C110" s="1">
-        <v>0.29399999999999998</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D110">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2">
-        <v>122.809</v>
+        <v>164.773</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <v>0.77</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H110" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I110">
         <v>100</v>
@@ -4837,28 +4838,28 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C111" s="1">
-        <v>0.19800000000000001</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D111">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2">
-        <v>119.67700000000001</v>
+        <v>164.05099999999999</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.19</v>
       </c>
       <c r="H111" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>100</v>
@@ -4870,28 +4871,28 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C112" s="1">
-        <v>0.222</v>
+        <v>0.374</v>
       </c>
       <c r="D112">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2">
-        <v>114.23699999999999</v>
+        <v>155.13800000000001</v>
       </c>
       <c r="F112" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G112" s="1">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="H112" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>100</v>
@@ -4903,295 +4904,295 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C113" s="1">
-        <v>0.161</v>
+        <v>0.247</v>
       </c>
       <c r="D113">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="E113" s="2">
-        <v>113.616</v>
+        <v>149.16399999999999</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
       </c>
       <c r="G113" s="1">
-        <v>0</v>
+        <v>0.52747252747252704</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J113">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C114" s="1">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="D114">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E114" s="2">
-        <v>108.985</v>
+        <v>148.02099999999999</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
       </c>
       <c r="G114" s="1">
-        <v>0</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="H114" s="1">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="J114">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.311</v>
+      </c>
+      <c r="D115">
         <v>18</v>
       </c>
-      <c r="B115" t="s">
-        <v>55</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="D115">
-        <v>115</v>
-      </c>
       <c r="E115" s="2">
-        <v>103.206</v>
+        <v>137.143</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
       </c>
       <c r="G115" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H115" s="1">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="J115">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C116" s="1">
-        <v>0.16400000000000001</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D116">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="E116" s="2">
-        <v>102.474</v>
+        <v>122.809</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="H116" s="1">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="J116">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C117" s="1">
-        <v>0.19400000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D117">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E117" s="2">
-        <v>98.703999999999994</v>
+        <v>119.67700000000001</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H117" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I117">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J117">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C118" s="1">
-        <v>0.23400000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D118">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E118" s="2">
-        <v>97.201999999999998</v>
+        <v>90.436999999999998</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J118">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C119" s="1">
-        <v>0.28799999999999998</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D119">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E119" s="2">
-        <v>93.933999999999997</v>
+        <v>90.120999999999995</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
       </c>
       <c r="G119" s="1">
-        <v>0</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="H119" s="1">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="J119">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C120" s="1">
-        <v>0.26200000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="D120">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E120" s="2">
-        <v>92.18</v>
+        <v>84.602999999999994</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
       </c>
       <c r="G120" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H120" s="1">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J120">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C121" s="1">
-        <v>0.17599999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D121">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E121" s="2">
-        <v>90.436999999999998</v>
+        <v>83.793999999999997</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <v>0.9375</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H121" s="1">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="J121">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5200,31 +5201,31 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C122" s="1">
-        <v>0.14899999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D122">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E122" s="2">
-        <v>90.120999999999995</v>
+        <v>75.792000000000002</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
       </c>
       <c r="G122" s="1">
-        <v>0.44444444444444398</v>
+        <v>0.97297297297297303</v>
       </c>
       <c r="H122" s="1">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J122">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5233,68 +5234,68 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C123" s="1">
-        <v>0.35699999999999998</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D123">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="E123" s="2">
-        <v>88.09</v>
+        <v>70.257000000000005</v>
       </c>
       <c r="F123" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G123" s="1">
-        <v>0</v>
+        <v>0.865979381443299</v>
       </c>
       <c r="H123" s="1">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J123">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C124" s="1">
-        <v>0.20799999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D124">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E124" s="2">
-        <v>86.852000000000004</v>
+        <v>69.204999999999998</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
       </c>
       <c r="G124" s="1">
-        <v>1.1494252873563199E-2</v>
+        <v>0.79381443298969001</v>
       </c>
       <c r="H124" s="1">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J124">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -5302,28 +5303,28 @@
         <v>68</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C125" s="1">
-        <v>0.25800000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="D125">
         <v>17</v>
       </c>
       <c r="E125" s="2">
-        <v>84.602999999999994</v>
+        <v>50.878</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
       </c>
       <c r="G125" s="1">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="H125" s="1">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J125">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5332,31 +5333,31 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C126" s="1">
-        <v>0.13800000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D126">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E126" s="2">
-        <v>83.793999999999997</v>
+        <v>49.201999999999998</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
       </c>
       <c r="G126" s="1">
-        <v>0.33333333333333298</v>
+        <v>0.4</v>
       </c>
       <c r="H126" s="1">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J126">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5365,64 +5366,64 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.191</v>
+      </c>
+      <c r="D127">
         <v>9</v>
       </c>
-      <c r="C127" s="1">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="D127">
-        <v>38</v>
-      </c>
       <c r="E127" s="2">
-        <v>78.900000000000006</v>
+        <v>48.584000000000003</v>
       </c>
       <c r="F127" s="1">
-        <v>2.2471910112359501E-2</v>
+        <v>0</v>
       </c>
       <c r="G127" s="1">
-        <v>2.2471910112359501E-2</v>
+        <v>0.94230769230769196</v>
       </c>
       <c r="H127" s="1">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="J127">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B128" t="s">
         <v>51</v>
       </c>
       <c r="C128" s="1">
-        <v>0.15</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D128">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E128" s="2">
-        <v>77.143000000000001</v>
+        <v>47.994</v>
       </c>
       <c r="F128" s="1">
-        <v>2.2222222222222199E-2</v>
+        <v>0</v>
       </c>
       <c r="G128" s="1">
-        <v>0.688888888888888</v>
+        <v>0.93333333333333302</v>
       </c>
       <c r="H128" s="1">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J128">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5431,31 +5432,31 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C129" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="D129">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E129" s="2">
-        <v>75.792000000000002</v>
+        <v>45.747999999999998</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
       </c>
       <c r="G129" s="1">
-        <v>0.97297297297297303</v>
+        <v>0.72</v>
       </c>
       <c r="H129" s="1">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J129">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5464,31 +5465,31 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="1">
-        <v>0.221</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D130">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E130" s="2">
-        <v>72.662999999999997</v>
+        <v>45.677999999999997</v>
       </c>
       <c r="F130" s="1">
-        <v>1.01010101010101E-2</v>
+        <v>0</v>
       </c>
       <c r="G130" s="1">
-        <v>0.23232323232323199</v>
+        <v>0.61818181818181805</v>
       </c>
       <c r="H130" s="1">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="J130">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5497,64 +5498,64 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C131" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D131">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E131" s="2">
-        <v>72.126000000000005</v>
+        <v>30.478000000000002</v>
       </c>
       <c r="F131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="1">
-        <v>0.01</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="H131" s="1">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="J131">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C132" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.222</v>
       </c>
       <c r="D132">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E132" s="2">
-        <v>70.257000000000005</v>
+        <v>29.422000000000001</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
       </c>
       <c r="G132" s="1">
-        <v>0.865979381443299</v>
+        <v>0.69879518072289104</v>
       </c>
       <c r="H132" s="1">
-        <v>0</v>
+        <v>2.40963855421686E-2</v>
       </c>
       <c r="I132">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J132">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5563,31 +5564,31 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C133" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D133">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E133" s="2">
-        <v>69.204999999999998</v>
+        <v>23.997</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
       </c>
       <c r="G133" s="1">
-        <v>0.79381443298969001</v>
+        <v>0.90384615384615297</v>
       </c>
       <c r="H133" s="1">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5596,130 +5597,130 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C134" s="1">
-        <v>0.104</v>
+        <v>0.26</v>
       </c>
       <c r="D134">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E134" s="2">
-        <v>65.025000000000006</v>
+        <v>20.991</v>
       </c>
       <c r="F134" s="1">
-        <v>0.86764705882352899</v>
+        <v>0</v>
       </c>
       <c r="G134" s="1">
-        <v>0</v>
+        <v>0.90476190476190399</v>
       </c>
       <c r="H134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="J134">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C135" s="1">
-        <v>0.185</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D135">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E135" s="2">
-        <v>62.381999999999998</v>
+        <v>20.16</v>
       </c>
       <c r="F135" s="1">
         <v>0</v>
       </c>
       <c r="G135" s="1">
-        <v>0</v>
+        <v>0.79310344827586199</v>
       </c>
       <c r="H135" s="1">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J135">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D136">
         <v>10</v>
       </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.108</v>
-      </c>
-      <c r="D136">
-        <v>25</v>
-      </c>
       <c r="E136" s="2">
-        <v>55.069000000000003</v>
+        <v>18.408000000000001</v>
       </c>
       <c r="F136" s="1">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="G136" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H136" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J136">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C137" s="1">
-        <v>0.155</v>
+        <v>0.187</v>
       </c>
       <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137" s="2">
+        <v>15.121</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137">
         <v>17</v>
-      </c>
-      <c r="E137" s="2">
-        <v>50.878</v>
-      </c>
-      <c r="F137" s="1">
-        <v>0</v>
-      </c>
-      <c r="G137" s="1">
-        <v>1</v>
-      </c>
-      <c r="H137" s="1">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>11</v>
       </c>
       <c r="J137">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5728,31 +5729,31 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C138" s="1">
-        <v>0.11799999999999999</v>
+        <v>0.192</v>
       </c>
       <c r="D138">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E138" s="2">
-        <v>49.201999999999998</v>
+        <v>15.007</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
       </c>
       <c r="G138" s="1">
-        <v>0.4</v>
+        <v>0.5625</v>
       </c>
       <c r="H138" s="1">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J138">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5761,31 +5762,31 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C139" s="1">
-        <v>0.191</v>
+        <v>0.17</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E139" s="2">
-        <v>48.584000000000003</v>
+        <v>14.632</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
       </c>
       <c r="G139" s="1">
-        <v>0.94230769230769196</v>
+        <v>0.47826086956521702</v>
       </c>
       <c r="H139" s="1">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J139">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5794,31 +5795,31 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C140" s="1">
-        <v>0.16500000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D140">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E140" s="2">
-        <v>47.994</v>
+        <v>14.327999999999999</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
       </c>
       <c r="G140" s="1">
-        <v>0.93333333333333302</v>
+        <v>0.28571428571428498</v>
       </c>
       <c r="H140" s="1">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J140">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5827,31 +5828,31 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C141" s="1">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D141">
+        <v>7</v>
+      </c>
+      <c r="E141" s="2">
+        <v>13.952999999999999</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>5</v>
-      </c>
-      <c r="E141" s="2">
-        <v>45.747999999999998</v>
-      </c>
-      <c r="F141" s="1">
-        <v>0</v>
-      </c>
-      <c r="G141" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="H141" s="1">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>75</v>
       </c>
       <c r="J141">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5860,31 +5861,31 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C142" s="1">
-        <v>0.20399999999999999</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D142">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E142" s="2">
-        <v>45.677999999999997</v>
+        <v>13.8</v>
       </c>
       <c r="F142" s="1">
         <v>0</v>
       </c>
       <c r="G142" s="1">
-        <v>0.61818181818181805</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H142" s="1">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J142">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5893,97 +5894,97 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C143" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D143">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E143" s="2">
-        <v>44.497999999999998</v>
+        <v>13.8</v>
       </c>
       <c r="F143" s="1">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="G143" s="1">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="H143" s="1">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J143">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C144" s="1">
-        <v>0.26500000000000001</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D144">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E144" s="2">
-        <v>41.786999999999999</v>
+        <v>13.555</v>
       </c>
       <c r="F144" s="1">
-        <v>9.4736842105263105E-2</v>
+        <v>0</v>
       </c>
       <c r="G144" s="1">
-        <v>1.0526315789473601E-2</v>
+        <v>1</v>
       </c>
       <c r="H144" s="1">
-        <v>8.4210526315789402E-2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="J144">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B145" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D145">
         <v>11</v>
       </c>
-      <c r="C145" s="1">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="D145">
-        <v>6</v>
-      </c>
       <c r="E145" s="2">
-        <v>40.917999999999999</v>
+        <v>10.779</v>
       </c>
       <c r="F145" s="1">
-        <v>1.0638297872340399E-2</v>
+        <v>0</v>
       </c>
       <c r="G145" s="1">
-        <v>0.82978723404255295</v>
+        <v>0.375</v>
       </c>
       <c r="H145" s="1">
-        <v>1.0638297872340399E-2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="J145">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5992,31 +5993,31 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C146" s="1">
-        <v>0.47599999999999998</v>
+        <v>0.123</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E146" s="2">
-        <v>38.439</v>
+        <v>10.613</v>
       </c>
       <c r="F146" s="1">
-        <v>1.1111111111111099E-2</v>
+        <v>0</v>
       </c>
       <c r="G146" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H146" s="1">
-        <v>1.1111111111111099E-2</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="J146">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6024,1439 +6025,1439 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>35</v>
-      </c>
-      <c r="B147" t="s">
-        <v>47</v>
+      <c r="A147" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C147" s="1">
-        <v>0.26</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D147">
-        <v>8</v>
+        <v>821</v>
       </c>
       <c r="E147" s="2">
-        <v>34.628999999999998</v>
+        <v>908.774</v>
       </c>
       <c r="F147" s="1">
-        <v>0.16666666666666599</v>
+        <v>0</v>
       </c>
       <c r="G147" s="1">
-        <v>0.42708333333333298</v>
+        <v>0</v>
       </c>
       <c r="H147" s="1">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J147">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C148" s="1">
-        <v>0.182</v>
+        <v>0.42</v>
       </c>
       <c r="D148">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="E148" s="2">
-        <v>31.396999999999998</v>
+        <v>894.11</v>
       </c>
       <c r="F148" s="1">
-        <v>0.80808080808080796</v>
+        <v>0</v>
       </c>
       <c r="G148" s="1">
-        <v>4.0404040404040401E-2</v>
+        <v>0</v>
       </c>
       <c r="H148" s="1">
-        <v>0.96969696969696895</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J148">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B149" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C149" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="D149">
-        <v>17</v>
+        <v>806</v>
       </c>
       <c r="E149" s="2">
-        <v>30.478000000000002</v>
+        <v>886.36800000000005</v>
       </c>
       <c r="F149" s="1">
         <v>0</v>
       </c>
       <c r="G149" s="1">
-        <v>0.57142857142857095</v>
+        <v>0</v>
       </c>
       <c r="H149" s="1">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="J149">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C150" s="1">
-        <v>0.17299999999999999</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D150">
+        <v>241</v>
+      </c>
+      <c r="E150" s="2">
+        <v>852.4</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>100</v>
+      </c>
+      <c r="J150">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
       </c>
-      <c r="E150" s="2">
-        <v>29.702999999999999</v>
-      </c>
-      <c r="F150" s="1">
-        <v>0.21126760563380201</v>
-      </c>
-      <c r="G150" s="1">
-        <v>1</v>
-      </c>
-      <c r="H150" s="1">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>71</v>
-      </c>
-      <c r="J150">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" t="s">
-        <v>62</v>
+      <c r="A151" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C151" s="1">
-        <v>0.222</v>
+        <v>0.31</v>
       </c>
       <c r="D151">
-        <v>9</v>
+        <v>695</v>
       </c>
       <c r="E151" s="2">
-        <v>29.422000000000001</v>
+        <v>665.71500000000003</v>
       </c>
       <c r="F151" s="1">
         <v>0</v>
       </c>
       <c r="G151" s="1">
-        <v>0.69879518072289104</v>
+        <v>0</v>
       </c>
       <c r="H151" s="1">
-        <v>2.40963855421686E-2</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J151">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C152" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D152">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="E152" s="2">
-        <v>28.388999999999999</v>
+        <v>649.70500000000004</v>
       </c>
       <c r="F152" s="1">
-        <v>4.9180327868852403E-2</v>
+        <v>0</v>
       </c>
       <c r="G152" s="1">
-        <v>0.14754098360655701</v>
+        <v>0</v>
       </c>
       <c r="H152" s="1">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="J152">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C153" s="1">
-        <v>0.122</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D153">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="E153" s="2">
-        <v>28.388999999999999</v>
+        <v>649.26700000000005</v>
       </c>
       <c r="F153" s="1">
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H153" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="J153">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C154" s="1">
-        <v>0.26800000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>637</v>
       </c>
       <c r="E154" s="2">
-        <v>26.786000000000001</v>
+        <v>638.22799999999995</v>
       </c>
       <c r="F154" s="1">
-        <v>3.65853658536585E-2</v>
+        <v>0</v>
       </c>
       <c r="G154" s="1">
-        <v>0.91463414634146301</v>
+        <v>0</v>
       </c>
       <c r="H154" s="1">
-        <v>2.4390243902439001E-2</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="J154">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D155">
+        <v>186</v>
+      </c>
+      <c r="E155" s="2">
+        <v>604.21600000000001</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>100</v>
+      </c>
+      <c r="J155">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C155" s="1">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
-      <c r="E155" s="2">
-        <v>26.731999999999999</v>
-      </c>
-      <c r="F155" s="1">
-        <v>9.7222222222222196E-2</v>
-      </c>
-      <c r="G155" s="1">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="H155" s="1">
-        <v>1.38888888888888E-2</v>
-      </c>
-      <c r="I155">
-        <v>72</v>
-      </c>
-      <c r="J155">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>31</v>
-      </c>
-      <c r="B156" t="s">
-        <v>47</v>
+      <c r="B156" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C156" s="1">
-        <v>0.27400000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D156">
-        <v>5</v>
+        <v>559</v>
       </c>
       <c r="E156" s="2">
-        <v>26.584</v>
+        <v>600.52599999999995</v>
       </c>
       <c r="F156" s="1">
-        <v>6.3829787234042507E-2</v>
+        <v>0</v>
       </c>
       <c r="G156" s="1">
-        <v>0.73404255319148903</v>
+        <v>0</v>
       </c>
       <c r="H156" s="1">
-        <v>1.0638297872340399E-2</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J156">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B157" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C157" s="1">
-        <v>0.32200000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="D157">
+        <v>480</v>
+      </c>
+      <c r="E157" s="2">
+        <v>407.17399999999998</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>100</v>
+      </c>
+      <c r="J157">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="E157" s="2">
-        <v>25.128</v>
-      </c>
-      <c r="F157" s="1">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G157" s="1">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="H157" s="1">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>80</v>
-      </c>
-      <c r="J157">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C158" s="1">
-        <v>0.29699999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="E158" s="2">
-        <v>23.997</v>
+        <v>390.96</v>
       </c>
       <c r="F158" s="1">
         <v>0</v>
       </c>
       <c r="G158" s="1">
-        <v>0.90384615384615297</v>
+        <v>0</v>
       </c>
       <c r="H158" s="1">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="J158">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C159" s="1">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="D159">
+        <v>414</v>
+      </c>
+      <c r="E159" s="2">
+        <v>384.80099999999999</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+      <c r="J159">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="E159" s="2">
-        <v>20.991</v>
-      </c>
-      <c r="F159" s="1">
-        <v>0</v>
-      </c>
-      <c r="G159" s="1">
-        <v>0.90476190476190399</v>
-      </c>
-      <c r="H159" s="1">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>21</v>
-      </c>
-      <c r="J159">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C160" s="1">
-        <v>0.42599999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="E160" s="2">
-        <v>20.32</v>
+        <v>367.58</v>
       </c>
       <c r="F160" s="1">
-        <v>0.112903225806451</v>
+        <v>0</v>
       </c>
       <c r="G160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" s="1">
-        <v>4.8387096774193498E-2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="J160">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C161" s="1">
-        <v>0.42299999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="E161" s="2">
-        <v>20.16</v>
+        <v>355.43099999999998</v>
       </c>
       <c r="F161" s="1">
         <v>0</v>
       </c>
       <c r="G161" s="1">
-        <v>0.79310344827586199</v>
+        <v>0</v>
       </c>
       <c r="H161" s="1">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="J161">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C162" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="E162" s="2">
-        <v>18.690000000000001</v>
+        <v>343.315</v>
       </c>
       <c r="F162" s="1">
-        <v>5.8823529411764698E-2</v>
+        <v>0</v>
       </c>
       <c r="G162" s="1">
-        <v>0.32352941176470501</v>
+        <v>0</v>
       </c>
       <c r="H162" s="1">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="J162">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B163" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C163" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="E163" s="2">
-        <v>18.408000000000001</v>
+        <v>325.64400000000001</v>
       </c>
       <c r="F163" s="1">
         <v>0</v>
       </c>
       <c r="G163" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="J163">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C164" s="1">
-        <v>0.122</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D164">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="E164" s="2">
-        <v>16.279</v>
+        <v>313.41500000000002</v>
       </c>
       <c r="F164" s="1">
-        <v>0.55555555555555503</v>
+        <v>0</v>
       </c>
       <c r="G164" s="1">
-        <v>0.48888888888888798</v>
+        <v>0</v>
       </c>
       <c r="H164" s="1">
-        <v>4.4444444444444398E-2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="J164">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C165" s="1">
-        <v>0.189</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D165">
-        <v>7</v>
+        <v>391</v>
       </c>
       <c r="E165" s="2">
-        <v>16.263000000000002</v>
+        <v>312.95299999999997</v>
       </c>
       <c r="F165" s="1">
-        <v>0.105263157894736</v>
+        <v>0</v>
       </c>
       <c r="G165" s="1">
-        <v>5.2631578947368397E-2</v>
+        <v>0</v>
       </c>
       <c r="H165" s="1">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="J165">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C166" s="1">
-        <v>0.20200000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E166" s="2">
-        <v>15.779</v>
+        <v>303.10199999999998</v>
       </c>
       <c r="F166" s="1">
-        <v>0.22500000000000001</v>
+        <v>0</v>
       </c>
       <c r="G166" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H166" s="1">
-        <v>3.7499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J166">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C167" s="1">
         <v>0.19800000000000001</v>
       </c>
       <c r="D167">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="E167" s="2">
-        <v>15.564</v>
+        <v>298.392</v>
       </c>
       <c r="F167" s="1">
-        <v>4.1666666666666602E-2</v>
+        <v>0</v>
       </c>
       <c r="G167" s="1">
-        <v>0.15277777777777701</v>
+        <v>0</v>
       </c>
       <c r="H167" s="1">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="J167">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C168" s="1">
-        <v>0.251</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D168">
+        <v>142</v>
+      </c>
+      <c r="E168" s="2">
+        <v>297.39999999999998</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>100</v>
+      </c>
+      <c r="J168">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="E168" s="2">
-        <v>15.257</v>
-      </c>
-      <c r="F168" s="1">
-        <v>8.6956521739130405E-2</v>
-      </c>
-      <c r="G168" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="H168" s="1">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>69</v>
-      </c>
-      <c r="J168">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C169" s="1">
-        <v>0.187</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="E169" s="2">
-        <v>15.121</v>
+        <v>296.45800000000003</v>
       </c>
       <c r="F169" s="1">
         <v>0</v>
       </c>
       <c r="G169" s="1">
-        <v>0.94117647058823495</v>
+        <v>0</v>
       </c>
       <c r="H169" s="1">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="J169">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B170" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C170" s="1">
-        <v>0.192</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>337</v>
       </c>
       <c r="E170" s="2">
-        <v>15.007</v>
+        <v>291.28800000000001</v>
       </c>
       <c r="F170" s="1">
         <v>0</v>
       </c>
       <c r="G170" s="1">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="H170" s="1">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="J170">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B171" t="s">
         <v>9</v>
       </c>
       <c r="C171" s="1">
-        <v>0.53900000000000003</v>
+        <v>0.312</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="E171" s="2">
-        <v>14.875999999999999</v>
+        <v>287.536</v>
       </c>
       <c r="F171" s="1">
-        <v>4.08163265306122E-2</v>
+        <v>0</v>
       </c>
       <c r="G171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" s="1">
-        <v>2.04081632653061E-2</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="J171">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C172" s="1">
-        <v>0.216</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="E172" s="2">
-        <v>14.632</v>
+        <v>274.92500000000001</v>
       </c>
       <c r="F172" s="1">
-        <v>8.8888888888888795E-2</v>
+        <v>0</v>
       </c>
       <c r="G172" s="1">
-        <v>0.24444444444444399</v>
+        <v>0</v>
       </c>
       <c r="H172" s="1">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J172">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C173" s="1">
-        <v>0.17</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="E173" s="2">
-        <v>14.632</v>
+        <v>271.98500000000001</v>
       </c>
       <c r="F173" s="1">
         <v>0</v>
       </c>
       <c r="G173" s="1">
-        <v>0.47826086956521702</v>
+        <v>0</v>
       </c>
       <c r="H173" s="1">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="J173">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B174" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C174" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="D174">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="E174" s="2">
-        <v>14.327999999999999</v>
+        <v>254.57400000000001</v>
       </c>
       <c r="F174" s="1">
         <v>0</v>
       </c>
       <c r="G174" s="1">
-        <v>0.28571428571428498</v>
+        <v>0</v>
       </c>
       <c r="H174" s="1">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="J174">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C175" s="1">
-        <v>0.16500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D175">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="E175" s="2">
-        <v>14.164999999999999</v>
+        <v>226.34</v>
       </c>
       <c r="F175" s="1">
-        <v>0.25287356321839</v>
+        <v>0</v>
       </c>
       <c r="G175" s="1">
-        <v>0.42528735632183901</v>
+        <v>0</v>
       </c>
       <c r="H175" s="1">
-        <v>2.2988505747126398E-2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J175">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C176" s="1">
-        <v>0.16500000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D176">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2">
-        <v>13.952999999999999</v>
+        <v>222.107</v>
       </c>
       <c r="F176" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G176" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H176" s="1">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J176">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C177" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2">
-        <v>13.952999999999999</v>
+        <v>221.447</v>
       </c>
       <c r="F177" s="1">
         <v>0</v>
       </c>
       <c r="G177" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H177" s="1">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="J177">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C178" s="1">
-        <v>0.28899999999999998</v>
+        <v>0.192</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="E178" s="2">
-        <v>13.8</v>
+        <v>214.958</v>
       </c>
       <c r="F178" s="1">
         <v>0</v>
       </c>
       <c r="G178" s="1">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="H178" s="1">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="J178">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C179" s="1">
-        <v>0.17100000000000001</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="E179" s="2">
-        <v>13.8</v>
+        <v>212.68899999999999</v>
       </c>
       <c r="F179" s="1">
         <v>0</v>
       </c>
       <c r="G179" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H179" s="1">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J179">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B180" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C180" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="D180">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="E180" s="2">
-        <v>13.568</v>
+        <v>207.25800000000001</v>
       </c>
       <c r="F180" s="1">
-        <v>0.27083333333333298</v>
+        <v>0</v>
       </c>
       <c r="G180" s="1">
-        <v>0.51041666666666596</v>
+        <v>0</v>
       </c>
       <c r="H180" s="1">
-        <v>4.1666666666666602E-2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J180">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C181" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="E181" s="2">
-        <v>13.555</v>
+        <v>201.58099999999999</v>
       </c>
       <c r="F181" s="1">
-        <v>7.1428571428571397E-2</v>
+        <v>0</v>
       </c>
       <c r="G181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" s="1">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="J181">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C182" s="1">
-        <v>0.49099999999999999</v>
+        <v>0.161</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="E182" s="2">
-        <v>13.555</v>
+        <v>159.13200000000001</v>
       </c>
       <c r="F182" s="1">
         <v>0</v>
       </c>
       <c r="G182" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" s="1">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J182">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C183" s="1">
-        <v>0.222</v>
+        <v>0.157</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E183" s="2">
-        <v>13.538</v>
+        <v>157.51</v>
       </c>
       <c r="F183" s="1">
-        <v>0.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="G183" s="1">
-        <v>0.66129032258064502</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="H183" s="1">
-        <v>3.2258064516128997E-2</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J183">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C184" s="1">
-        <v>0.218</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D184">
+        <v>180</v>
+      </c>
+      <c r="E184" s="2">
+        <v>155.40199999999999</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>30</v>
+      </c>
+      <c r="J184">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="E184" s="2">
-        <v>13.279</v>
-      </c>
-      <c r="F184" s="1">
-        <v>2.4390243902439001E-2</v>
-      </c>
-      <c r="G184" s="1">
-        <v>0.68292682926829196</v>
-      </c>
-      <c r="H184" s="1">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>41</v>
-      </c>
-      <c r="J184">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C185" s="1">
-        <v>0.16200000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D185">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="E185" s="2">
-        <v>12.672000000000001</v>
+        <v>151.17699999999999</v>
       </c>
       <c r="F185" s="1">
-        <v>9.375E-2</v>
+        <v>0</v>
       </c>
       <c r="G185" s="1">
-        <v>0.21875</v>
+        <v>0</v>
       </c>
       <c r="H185" s="1">
         <v>0</v>
       </c>
       <c r="I185">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J185">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C186" s="1">
-        <v>0.186</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D186">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="E186" s="2">
-        <v>12.614000000000001</v>
+        <v>146.62799999999999</v>
       </c>
       <c r="F186" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G186" s="1">
-        <v>7.8125E-2</v>
+        <v>0</v>
       </c>
       <c r="H186" s="1">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="J186">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C187" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="D187">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="E187" s="2">
-        <v>12.614000000000001</v>
+        <v>140.53200000000001</v>
       </c>
       <c r="F187" s="1">
-        <v>9.5238095238095205E-2</v>
+        <v>0</v>
       </c>
       <c r="G187" s="1">
-        <v>0.238095238095238</v>
+        <v>0</v>
       </c>
       <c r="H187" s="1">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J187">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C188" s="1">
-        <v>0.13800000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="D188">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E188" s="2">
-        <v>10.779</v>
+        <v>137.41800000000001</v>
       </c>
       <c r="F188" s="1">
         <v>0</v>
       </c>
       <c r="G188" s="1">
-        <v>0.375</v>
+        <v>1.01010101010101E-2</v>
       </c>
       <c r="H188" s="1">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J188">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C189" s="1">
-        <v>0.123</v>
+        <v>0.27</v>
       </c>
       <c r="D189">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="E189" s="2">
-        <v>10.613</v>
+        <v>137.07400000000001</v>
       </c>
       <c r="F189" s="1">
         <v>0</v>
       </c>
       <c r="G189" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H189" s="1">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J189">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B190" t="s">
         <v>39</v>
       </c>
       <c r="C190" s="1">
-        <v>0.15</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D190">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2">
-        <v>10.208</v>
+        <v>133.87299999999999</v>
       </c>
       <c r="F190" s="1">
         <v>0</v>
@@ -7468,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="I190">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="J190">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7477,154 +7478,154 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
         <v>44</v>
       </c>
       <c r="C191" s="1">
-        <v>0.14099999999999999</v>
+        <v>0.254</v>
       </c>
       <c r="D191">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="E191" s="2">
-        <v>8.5779999999999994</v>
+        <v>129.376</v>
       </c>
       <c r="F191" s="1">
-        <v>0.30769230769230699</v>
+        <v>0</v>
       </c>
       <c r="G191" s="1">
-        <v>0.19230769230769201</v>
+        <v>0</v>
       </c>
       <c r="H191" s="1">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="J191">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B192" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C192" s="1">
-        <v>0.184</v>
+        <v>0.161</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E192" s="2">
-        <v>8.5370000000000008</v>
+        <v>113.616</v>
       </c>
       <c r="F192" s="1">
-        <v>0.14285714285714199</v>
+        <v>0</v>
       </c>
       <c r="G192" s="1">
-        <v>4.7619047619047603E-2</v>
+        <v>0</v>
       </c>
       <c r="H192" s="1">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J192">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C193" s="1">
-        <v>0.16500000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E193" s="2">
-        <v>8.09</v>
+        <v>108.985</v>
       </c>
       <c r="F193" s="1">
-        <v>0.28301886792452802</v>
+        <v>0</v>
       </c>
       <c r="G193" s="1">
-        <v>1.8867924528301799E-2</v>
+        <v>0</v>
       </c>
       <c r="H193" s="1">
         <v>0</v>
       </c>
       <c r="I193">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J193">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B194" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C194" s="1">
-        <v>0.13300000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D194">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="E194" s="2">
-        <v>8.09</v>
+        <v>103.206</v>
       </c>
       <c r="F194" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G194" s="1">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="H194" s="1">
         <v>0</v>
       </c>
       <c r="I194">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J194">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C195" s="1">
-        <v>0.191</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E195" s="2">
-        <v>7.9660000000000002</v>
+        <v>102.474</v>
       </c>
       <c r="F195" s="1">
-        <v>0.17647058823529399</v>
+        <v>0</v>
       </c>
       <c r="G195" s="1">
         <v>0</v>
@@ -7633,31 +7634,31 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J195">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C196" s="1">
-        <v>0.17199999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E196" s="2">
-        <v>7.9660000000000002</v>
+        <v>98.703999999999994</v>
       </c>
       <c r="F196" s="1">
-        <v>5.8823529411764698E-2</v>
+        <v>0</v>
       </c>
       <c r="G196" s="1">
         <v>0</v>
@@ -7666,31 +7667,31 @@
         <v>0</v>
       </c>
       <c r="I196">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J196">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C197" s="1">
-        <v>0.16200000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E197" s="2">
-        <v>7.9660000000000002</v>
+        <v>97.201999999999998</v>
       </c>
       <c r="F197" s="1">
-        <v>0.15384615384615299</v>
+        <v>0</v>
       </c>
       <c r="G197" s="1">
         <v>0</v>
@@ -7699,176 +7700,176 @@
         <v>0</v>
       </c>
       <c r="I197">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="J197">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C198" s="1">
-        <v>0.5</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="E198" s="2">
-        <v>7.5730000000000004</v>
+        <v>93.933999999999997</v>
       </c>
       <c r="F198" s="1">
-        <v>2.94117647058823E-2</v>
+        <v>0</v>
       </c>
       <c r="G198" s="1">
-        <v>0.61764705882352899</v>
+        <v>0</v>
       </c>
       <c r="H198" s="1">
-        <v>8.8235294117646995E-2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="J198">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B199" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C199" s="1">
-        <v>0.10299999999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D199">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E199" s="2">
-        <v>5.1710000000000003</v>
+        <v>92.18</v>
       </c>
       <c r="F199" s="1">
-        <v>0.98701298701298701</v>
+        <v>0</v>
       </c>
       <c r="G199" s="1">
-        <v>3.8961038961038898E-2</v>
+        <v>0</v>
       </c>
       <c r="H199" s="1">
-        <v>0.97402597402597402</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J199">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D200">
         <v>38</v>
       </c>
-      <c r="C200" s="1">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D200">
+      <c r="E200" s="2">
+        <v>86.852000000000004</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0</v>
+      </c>
+      <c r="G200" s="1">
+        <v>1.1494252873563199E-2</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>87</v>
+      </c>
+      <c r="J200">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="E200" s="2">
-        <v>3.6360000000000001</v>
-      </c>
-      <c r="F200" s="1">
-        <v>0</v>
-      </c>
-      <c r="G200" s="1">
-        <v>0.98936170212765895</v>
-      </c>
-      <c r="H200" s="1">
-        <v>0.95744680851063801</v>
-      </c>
-      <c r="I200">
-        <v>94</v>
-      </c>
-      <c r="J200">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C201" s="1">
-        <v>0.112</v>
+        <v>0.185</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E201" s="2">
-        <v>2.0499999999999998</v>
+        <v>62.381999999999998</v>
       </c>
       <c r="F201" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G201" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201" s="1">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="J201">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B202" t="s">
+        <v>39</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D202">
         <v>11</v>
       </c>
-      <c r="C202" s="1">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="D202">
-        <v>1</v>
-      </c>
       <c r="E202" s="2">
-        <v>0.89100000000000001</v>
+        <v>10.208</v>
       </c>
       <c r="F202" s="1">
         <v>0</v>
       </c>
       <c r="G202" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202" s="1">
-        <v>0.57142857142857095</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>7</v>
       </c>
       <c r="J202">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
